--- a/suppxls/Scen_UCRHS_in_DINS_and_UC_dum_comm.xlsx
+++ b/suppxls/Scen_UCRHS_in_DINS_and_UC_dum_comm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\suppxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C77C118-8116-4AEC-BB16-EAC26B7FFEE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EFB9C9-BA84-4BCE-BFC9-E8932189B0A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18135" windowHeight="11025" xr2:uid="{2E3E7B72-0787-49EE-9C80-693093B43FBD}"/>
+    <workbookView xWindow="9675" yWindow="4575" windowWidth="18135" windowHeight="11025" xr2:uid="{2E3E7B72-0787-49EE-9C80-693093B43FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>attribute</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>UC*buildrate*</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8180AF2-BAED-423B-AB43-434CAAF8B644}">
-  <dimension ref="C3:AZ15"/>
+  <dimension ref="B3:AZ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,12 +453,15 @@
     <col min="7" max="52" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:52" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -607,7 +613,10 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -669,7 +678,10 @@
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
     </row>
-    <row r="6" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -821,7 +833,10 @@
         <v>4754.8151472296904</v>
       </c>
     </row>
-    <row r="7" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -883,7 +898,10 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
     </row>
-    <row r="8" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -1035,12 +1053,12 @@
         <v>6380.4975447688403</v>
       </c>
     </row>
-    <row r="13" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:52" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:52" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="3:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:52" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>10</v>
       </c>
